--- a/delito.xlsx
+++ b/delito.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maver\Desktop\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1922F0-32AF-454B-A646-4725CBD43236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2F0D2F-DF2F-47EC-9504-138B45E7E67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.denuncias_prov" sheetId="24" r:id="rId1"/>
+    <sheet name="robo_autopartes" sheetId="25" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5.denuncias_prov'!$A$1:$AL$1</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="160">
   <si>
     <t>Nacional</t>
   </si>
@@ -140,6 +141,387 @@
   </si>
   <si>
     <t>Robo de bienes, accesorios y autopartes de vehículos</t>
+  </si>
+  <si>
+    <t>ene-14</t>
+  </si>
+  <si>
+    <t>feb-14</t>
+  </si>
+  <si>
+    <t>mar-14</t>
+  </si>
+  <si>
+    <t>abr-14</t>
+  </si>
+  <si>
+    <t>may-14</t>
+  </si>
+  <si>
+    <t>jun-14</t>
+  </si>
+  <si>
+    <t>jul-14</t>
+  </si>
+  <si>
+    <t>ago-14</t>
+  </si>
+  <si>
+    <t>sep-14</t>
+  </si>
+  <si>
+    <t>oct-14</t>
+  </si>
+  <si>
+    <t>nov-14</t>
+  </si>
+  <si>
+    <t>dic-14</t>
+  </si>
+  <si>
+    <t>ene-15</t>
+  </si>
+  <si>
+    <t>feb-15</t>
+  </si>
+  <si>
+    <t>mar-15</t>
+  </si>
+  <si>
+    <t>abr-15</t>
+  </si>
+  <si>
+    <t>may-15</t>
+  </si>
+  <si>
+    <t>jun-15</t>
+  </si>
+  <si>
+    <t>jul-15</t>
+  </si>
+  <si>
+    <t>ago-15</t>
+  </si>
+  <si>
+    <t>sep-15</t>
+  </si>
+  <si>
+    <t>oct-15</t>
+  </si>
+  <si>
+    <t>nov-15</t>
+  </si>
+  <si>
+    <t>dic-15</t>
+  </si>
+  <si>
+    <t>ene-16</t>
+  </si>
+  <si>
+    <t>feb-16</t>
+  </si>
+  <si>
+    <t>mar-16</t>
+  </si>
+  <si>
+    <t>abr-16</t>
+  </si>
+  <si>
+    <t>may-16</t>
+  </si>
+  <si>
+    <t>jun-16</t>
+  </si>
+  <si>
+    <t>jul-16</t>
+  </si>
+  <si>
+    <t>ago-16</t>
+  </si>
+  <si>
+    <t>sep-16</t>
+  </si>
+  <si>
+    <t>oct-16</t>
+  </si>
+  <si>
+    <t>nov-16</t>
+  </si>
+  <si>
+    <t>dic-16</t>
+  </si>
+  <si>
+    <t>ene-17</t>
+  </si>
+  <si>
+    <t>feb-17</t>
+  </si>
+  <si>
+    <t>mar-17</t>
+  </si>
+  <si>
+    <t>abr-17</t>
+  </si>
+  <si>
+    <t>may-17</t>
+  </si>
+  <si>
+    <t>jun-17</t>
+  </si>
+  <si>
+    <t>jul-17</t>
+  </si>
+  <si>
+    <t>ago-17</t>
+  </si>
+  <si>
+    <t>sep-17</t>
+  </si>
+  <si>
+    <t>oct-17</t>
+  </si>
+  <si>
+    <t>nov-17</t>
+  </si>
+  <si>
+    <t>dic-17</t>
+  </si>
+  <si>
+    <t>ene-18</t>
+  </si>
+  <si>
+    <t>feb-18</t>
+  </si>
+  <si>
+    <t>mar-18</t>
+  </si>
+  <si>
+    <t>abr-18</t>
+  </si>
+  <si>
+    <t>may-18</t>
+  </si>
+  <si>
+    <t>jun-18</t>
+  </si>
+  <si>
+    <t>jul-18</t>
+  </si>
+  <si>
+    <t>ago-18</t>
+  </si>
+  <si>
+    <t>sep-18</t>
+  </si>
+  <si>
+    <t>oct-18</t>
+  </si>
+  <si>
+    <t>nov-18</t>
+  </si>
+  <si>
+    <t>dic-18</t>
+  </si>
+  <si>
+    <t>ene-19</t>
+  </si>
+  <si>
+    <t>feb-19</t>
+  </si>
+  <si>
+    <t>mar-19</t>
+  </si>
+  <si>
+    <t>abr-19</t>
+  </si>
+  <si>
+    <t>may-19</t>
+  </si>
+  <si>
+    <t>jun-19</t>
+  </si>
+  <si>
+    <t>jul-19</t>
+  </si>
+  <si>
+    <t>ago-19</t>
+  </si>
+  <si>
+    <t>sep-19</t>
+  </si>
+  <si>
+    <t>oct-19</t>
+  </si>
+  <si>
+    <t>nov-19</t>
+  </si>
+  <si>
+    <t>dic-19</t>
+  </si>
+  <si>
+    <t>ene-20</t>
+  </si>
+  <si>
+    <t>feb-20</t>
+  </si>
+  <si>
+    <t>mar-20</t>
+  </si>
+  <si>
+    <t>abr-20</t>
+  </si>
+  <si>
+    <t>may-20</t>
+  </si>
+  <si>
+    <t>jun-20</t>
+  </si>
+  <si>
+    <t>jul-20</t>
+  </si>
+  <si>
+    <t>ago-20</t>
+  </si>
+  <si>
+    <t>sep-20</t>
+  </si>
+  <si>
+    <t>oct-20</t>
+  </si>
+  <si>
+    <t>nov-20</t>
+  </si>
+  <si>
+    <t>dic-20</t>
+  </si>
+  <si>
+    <t>ene-21</t>
+  </si>
+  <si>
+    <t>feb-21</t>
+  </si>
+  <si>
+    <t>mar-21</t>
+  </si>
+  <si>
+    <t>abr-21</t>
+  </si>
+  <si>
+    <t>may-21</t>
+  </si>
+  <si>
+    <t>jun-21</t>
+  </si>
+  <si>
+    <t>jul-21</t>
+  </si>
+  <si>
+    <t>ago-21</t>
+  </si>
+  <si>
+    <t>sep-21</t>
+  </si>
+  <si>
+    <t>oct-21</t>
+  </si>
+  <si>
+    <t>nov-21</t>
+  </si>
+  <si>
+    <t>dic-21</t>
+  </si>
+  <si>
+    <t>ene-22</t>
+  </si>
+  <si>
+    <t>feb-22</t>
+  </si>
+  <si>
+    <t>mar-22</t>
+  </si>
+  <si>
+    <t>abr-22</t>
+  </si>
+  <si>
+    <t>may-22</t>
+  </si>
+  <si>
+    <t>jun-22</t>
+  </si>
+  <si>
+    <t>jul-22</t>
+  </si>
+  <si>
+    <t>ago-22</t>
+  </si>
+  <si>
+    <t>sep-22</t>
+  </si>
+  <si>
+    <t>oct-22</t>
+  </si>
+  <si>
+    <t>nov-22</t>
+  </si>
+  <si>
+    <t>dic-22</t>
+  </si>
+  <si>
+    <t>ene-23</t>
+  </si>
+  <si>
+    <t>feb-23</t>
+  </si>
+  <si>
+    <t>mar-23</t>
+  </si>
+  <si>
+    <t>abr-23</t>
+  </si>
+  <si>
+    <t>may-23</t>
+  </si>
+  <si>
+    <t>jun-23</t>
+  </si>
+  <si>
+    <t>jul-23</t>
+  </si>
+  <si>
+    <t>ago-23</t>
+  </si>
+  <si>
+    <t>sep-23</t>
+  </si>
+  <si>
+    <t>oct-23</t>
+  </si>
+  <si>
+    <t>nov-23</t>
+  </si>
+  <si>
+    <t>dic-23</t>
+  </si>
+  <si>
+    <t>ene-24</t>
+  </si>
+  <si>
+    <t>feb-24</t>
+  </si>
+  <si>
+    <t>mar-24</t>
+  </si>
+  <si>
+    <t>abr-24</t>
+  </si>
+  <si>
+    <t>may-24</t>
+  </si>
+  <si>
+    <t>jun-24</t>
+  </si>
+  <si>
+    <t>jul-24</t>
   </si>
 </sst>
 </file>
@@ -267,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -316,6 +698,47 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="4" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
@@ -323,7 +746,18 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,7 +1153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -744,13 +1178,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -759,6 +1187,47 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="388" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="388" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="389">
@@ -1152,7 +1621,4718 @@
     <cellStyle name="style1436630977900" xfId="387" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
     <cellStyle name="Título 4" xfId="119" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="132">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1724,6 +6904,144 @@
 </externalLink>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4442A79F-AD76-4A78-B79D-AB89342E418F}" name="Tabla1" displayName="Tabla1" ref="A1:DY7" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" tableBorderDxfId="129" dataCellStyle="Normal_Hoja2">
+  <autoFilter ref="A1:DY7" xr:uid="{4442A79F-AD76-4A78-B79D-AB89342E418F}"/>
+  <tableColumns count="129">
+    <tableColumn id="1" xr3:uid="{A281C3FB-0B8F-41B2-A686-D4CE1F1A6A9F}" name="Provincia" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{76BC3A46-EEF2-4D05-BF0A-59CF1C73F230}" name="Delitos de mayor incidencia" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{2D463DB5-3521-41E9-A438-6241AE7E7B95}" name="ene-14" dataDxfId="126" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="4" xr3:uid="{07382508-B11C-4579-93E5-9F5C8E7A821D}" name="feb-14" dataDxfId="125" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="5" xr3:uid="{91105221-E591-475B-8CC4-9F7192CB3F2F}" name="mar-14" dataDxfId="124" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="6" xr3:uid="{92E0BB6B-A371-42ED-9E03-EBDA5C748E6B}" name="abr-14" dataDxfId="123" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="7" xr3:uid="{E9BC5265-5AC2-45BF-9362-614E303A5C57}" name="may-14" dataDxfId="122" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="8" xr3:uid="{534460A0-DDB5-45B6-B683-7E9946209933}" name="jun-14" dataDxfId="121" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="9" xr3:uid="{67F1E46E-CB83-4C32-880C-BB4724C54653}" name="jul-14" dataDxfId="120" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="10" xr3:uid="{E8A694F0-2158-477F-A3E8-9EE87FFEEEA7}" name="ago-14" dataDxfId="119" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="11" xr3:uid="{83C38F65-02A2-4AD0-9968-9212FC2F0485}" name="sep-14" dataDxfId="118" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="12" xr3:uid="{2778059F-C98D-4308-B812-9C7DF68D52FD}" name="oct-14" dataDxfId="117" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="13" xr3:uid="{D388AB79-360F-428D-8B5B-7C0E90B25E90}" name="nov-14" dataDxfId="116" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="14" xr3:uid="{0B9636CC-AA22-44F2-8805-34A28ACDFD51}" name="dic-14" dataDxfId="115" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="15" xr3:uid="{B39FD2AE-EBA5-4563-8E06-F07D40FE65B7}" name="ene-15" dataDxfId="114" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="16" xr3:uid="{C949C9B6-9B4B-4F30-B891-8AC1E12D1B69}" name="feb-15" dataDxfId="113" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="17" xr3:uid="{2053F5AF-85DD-4DD5-A5C5-A657AAADCADC}" name="mar-15" dataDxfId="112" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="18" xr3:uid="{10A75D46-608C-4D2E-9B8F-18919F1704EE}" name="abr-15" dataDxfId="111" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="19" xr3:uid="{42011DDF-4018-4FDB-9545-5092C3D6DBD2}" name="may-15" dataDxfId="110" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="20" xr3:uid="{DD2DCAB3-2F41-40DB-96A7-07E628C469DB}" name="jun-15" dataDxfId="109" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="21" xr3:uid="{237BCB09-DA30-4E76-9AEA-341BCC269EC4}" name="jul-15" dataDxfId="108" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="22" xr3:uid="{21F2CDF1-F345-478A-82EF-0840C2090C83}" name="ago-15" dataDxfId="107" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="23" xr3:uid="{9A9AB3CA-E3E4-44E5-9486-7614473074EF}" name="sep-15" dataDxfId="106" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="24" xr3:uid="{B62BBA15-9679-4350-942D-82802F3A1343}" name="oct-15" dataDxfId="105" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="25" xr3:uid="{671AD80B-C7FE-4DB2-9593-D2458966F28B}" name="nov-15" dataDxfId="104" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="26" xr3:uid="{54A2F565-CDF8-437E-B6B9-8842EF40CCC9}" name="dic-15" dataDxfId="103" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="27" xr3:uid="{CCC6D1BE-49AC-4DC0-8398-20036D0FB6BC}" name="ene-16" dataDxfId="102" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="28" xr3:uid="{A51B7C43-A005-422F-BEC3-DC13BEA55DDE}" name="feb-16" dataDxfId="101" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="29" xr3:uid="{DAE1C72C-FE21-475E-A009-72C9747AD52E}" name="mar-16" dataDxfId="100" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="30" xr3:uid="{E1D8EC51-4A4F-4255-8732-9EBDDF059EF2}" name="abr-16" dataDxfId="99" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="31" xr3:uid="{CF1CD1D3-893E-4878-B8DA-2014E7706910}" name="may-16" dataDxfId="98" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="32" xr3:uid="{68135165-24C0-4C15-942B-77E78A6F7EEA}" name="jun-16" dataDxfId="97" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="33" xr3:uid="{86BF359C-A1DB-4639-A6F7-668468BC32B6}" name="jul-16" dataDxfId="96" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="34" xr3:uid="{3BE848F7-4B3D-400F-B876-417D17C46C20}" name="ago-16" dataDxfId="95" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="35" xr3:uid="{B58445A4-6DD3-4BB3-95AE-A8CEDEBB4D0E}" name="sep-16" dataDxfId="94" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="36" xr3:uid="{F5A545A2-7083-46CF-B44C-7272A252DD6F}" name="oct-16" dataDxfId="93" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="37" xr3:uid="{0CEF30F6-A701-40F2-9FD1-BA13022FA60A}" name="nov-16" dataDxfId="92" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="38" xr3:uid="{43C1079E-171C-4E15-97B5-D1B5157A7B3A}" name="dic-16" dataDxfId="91" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="39" xr3:uid="{D224AC6C-896E-4FBF-8F81-BE13A45E241E}" name="ene-17" dataDxfId="90" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="40" xr3:uid="{C4F8782F-4E6A-4E0F-B794-14FA4297941B}" name="feb-17" dataDxfId="89" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="41" xr3:uid="{91E10954-3102-4FB6-A996-461BE649CA9D}" name="mar-17" dataDxfId="88" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="42" xr3:uid="{C7217FD7-5C00-47BA-ABBD-63276CA0C94E}" name="abr-17" dataDxfId="87" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="43" xr3:uid="{D766F147-F071-424A-9FEC-77BAE059413A}" name="may-17" dataDxfId="86" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="44" xr3:uid="{62E4DA85-682B-4197-A015-B51CBFA68B1C}" name="jun-17" dataDxfId="85" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="45" xr3:uid="{236F795F-3580-43D5-A843-C1A71ADFC9CB}" name="jul-17" dataDxfId="84" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="46" xr3:uid="{7C78D055-6B30-40A4-8A4E-63716C746FD5}" name="ago-17" dataDxfId="83" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="47" xr3:uid="{A6BB44CF-FF8D-4146-8222-7FD32CE03DF2}" name="sep-17" dataDxfId="82" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="48" xr3:uid="{6D98F23F-066B-4C48-A0A7-ADC79C9048E1}" name="oct-17" dataDxfId="81" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="49" xr3:uid="{67412BA6-3A20-42FB-89BB-F7CF541808B1}" name="nov-17" dataDxfId="80" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="50" xr3:uid="{4C9D12B0-9A6C-4B6D-BF2A-B3AB45131B40}" name="dic-17" dataDxfId="79" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="51" xr3:uid="{9F21E509-27B6-47A1-B457-3AD9F68A512F}" name="ene-18" dataDxfId="78" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="52" xr3:uid="{62D06C2F-810C-468B-A13F-E62B4D1CC9F2}" name="feb-18" dataDxfId="77" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="53" xr3:uid="{338D1516-1DB3-47DD-8C46-2DCD94D64261}" name="mar-18" dataDxfId="76" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="54" xr3:uid="{66D7F572-3087-497E-852C-B22229D592A8}" name="abr-18" dataDxfId="75" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="55" xr3:uid="{1CECE3F4-DA54-4D10-A207-28538A7031DA}" name="may-18" dataDxfId="74" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="56" xr3:uid="{705AC74D-6581-4345-8E76-5C270CB379A8}" name="jun-18" dataDxfId="73" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="57" xr3:uid="{462C6493-8AE1-4BC9-988F-CEB3A6BB52C5}" name="jul-18" dataDxfId="72" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="58" xr3:uid="{8DB1B685-D3F3-4DDE-8AFA-6A639D095DF5}" name="ago-18" dataDxfId="71" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="59" xr3:uid="{0C4A2E87-B172-472B-A3B5-601FF9B1737F}" name="sep-18" dataDxfId="70" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="60" xr3:uid="{B301104E-A44B-4996-A597-BBF9CA4FF14B}" name="oct-18" dataDxfId="69" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="61" xr3:uid="{2702984C-40BC-4472-A8B6-AF99054B4B7E}" name="nov-18" dataDxfId="68" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="62" xr3:uid="{73E07202-CA8D-4E93-8829-7AC5302C7646}" name="dic-18" dataDxfId="67" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="63" xr3:uid="{186AC45E-635B-492D-B925-30C5BD9B23A1}" name="ene-19" dataDxfId="66" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="64" xr3:uid="{A35C8B42-71AD-4D9D-8B40-F84CB30FD3C4}" name="feb-19" dataDxfId="65" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="65" xr3:uid="{259F8BF3-8728-45B9-B512-31BFDE418C3F}" name="mar-19" dataDxfId="64" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="66" xr3:uid="{A32B5C47-806A-4256-A3AE-4D14AF4F8CB5}" name="abr-19" dataDxfId="63" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="67" xr3:uid="{C7689145-98C3-4A47-98CE-550A104B7170}" name="may-19" dataDxfId="62" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="68" xr3:uid="{58C10D89-AB52-4D36-84D6-5B8F29519B19}" name="jun-19" dataDxfId="61" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="69" xr3:uid="{47BDBB80-47CE-46E6-B9C6-2BA401DEC2BE}" name="jul-19" dataDxfId="60" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="70" xr3:uid="{4B2B943E-2B87-4F15-B258-2FB18F93559F}" name="ago-19" dataDxfId="59" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="71" xr3:uid="{D741607E-E2D0-4390-9950-02E01FB63230}" name="sep-19" dataDxfId="58" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="72" xr3:uid="{8E042800-FC8F-47B8-AF03-6BBD292B87AF}" name="oct-19" dataDxfId="57" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="73" xr3:uid="{62F46D48-7847-4941-A4AF-D280FF585E20}" name="nov-19" dataDxfId="56" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="74" xr3:uid="{76D1BCFF-ACDC-4C38-821A-EF817ED6EA9F}" name="dic-19" dataDxfId="55" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="75" xr3:uid="{67EB3484-1D05-47AD-9E49-F4DF1BE83386}" name="ene-20" dataDxfId="54" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="76" xr3:uid="{3773A0D4-2575-49A5-BA16-F7CA16DA14C1}" name="feb-20" dataDxfId="53" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="77" xr3:uid="{F9114C42-7BAD-436A-9493-9BA4CBCE3118}" name="mar-20" dataDxfId="52" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="78" xr3:uid="{3964125A-8F1A-4E63-B4B6-7B8F7FDD63CA}" name="abr-20" dataDxfId="51" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="79" xr3:uid="{65BA6A06-5BC5-43B2-8ADB-A0D162C1C746}" name="may-20" dataDxfId="50" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="80" xr3:uid="{5023028A-0852-40EA-A539-AADF6DC3DC6D}" name="jun-20" dataDxfId="49" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="81" xr3:uid="{FEBFBAFF-BDE3-4945-9087-A0744D5636E5}" name="jul-20" dataDxfId="48" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="82" xr3:uid="{D4D93A2D-0C3C-4F2D-822E-4F2D2CBBBEE1}" name="ago-20" dataDxfId="47" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="83" xr3:uid="{06762980-676D-4BBC-8A1A-BF6F70392F0F}" name="sep-20" dataDxfId="46" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="84" xr3:uid="{9D5740AF-E8F8-414D-9A70-497CF46CA818}" name="oct-20" dataDxfId="45" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="85" xr3:uid="{220BE979-63DA-46E5-89DB-7171AFE504A8}" name="nov-20" dataDxfId="44" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="86" xr3:uid="{5A416301-F426-4E53-B6D6-0753A89D1717}" name="dic-20" dataDxfId="43" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="87" xr3:uid="{BF2D494E-5205-430D-8909-27E936A1BD1F}" name="ene-21" dataDxfId="42" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="88" xr3:uid="{8B5D16A0-A3C2-4F2F-B543-CCCCDA265A7D}" name="feb-21" dataDxfId="41" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="89" xr3:uid="{6BC8CB2B-FFB5-4AF0-B353-B6F1A629F488}" name="mar-21" dataDxfId="40" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="90" xr3:uid="{16378F68-788F-4F1C-9C7B-D97DB03B96B8}" name="abr-21" dataDxfId="39" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="91" xr3:uid="{B972CEE2-772B-4800-9B80-F126516339AB}" name="may-21" dataDxfId="38" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="92" xr3:uid="{AAC79160-63BB-4528-82F6-E4B8E2215227}" name="jun-21" dataDxfId="37" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="93" xr3:uid="{5491895B-4B0C-407E-9CDB-E48004EFB4B8}" name="jul-21" dataDxfId="36" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="94" xr3:uid="{5D1234E9-6B85-46C1-8CEE-28909DE019C2}" name="ago-21" dataDxfId="35" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="95" xr3:uid="{1AE77820-E3E5-4B90-9065-E16411846386}" name="sep-21" dataDxfId="34" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="96" xr3:uid="{432A117C-3A1E-418B-BA1B-E02887F6347A}" name="oct-21" dataDxfId="33" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="97" xr3:uid="{72F81DD3-5730-4382-BBC4-A380506B9EA3}" name="nov-21" dataDxfId="32" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="98" xr3:uid="{B797C71F-6D82-4A76-990E-1B1880BD1B04}" name="dic-21" dataDxfId="31" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="99" xr3:uid="{C4481A65-3749-4A00-9D3A-8B87AC6245E4}" name="ene-22" dataDxfId="30" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="100" xr3:uid="{928F8523-3974-490A-A5AD-03F75857BBD1}" name="feb-22" dataDxfId="29" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="101" xr3:uid="{FC17C7AD-E724-45B4-A6E7-100D577737D0}" name="mar-22" dataDxfId="28" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="102" xr3:uid="{5B8F809F-D76E-4DD5-9DF4-2A70F49FE678}" name="abr-22" dataDxfId="27" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="103" xr3:uid="{9E452C93-0C5C-4381-8F3F-6A0AE9FA5423}" name="may-22" dataDxfId="26" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="104" xr3:uid="{B984270F-A164-4906-A532-AA2402C5ED10}" name="jun-22" dataDxfId="25" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="105" xr3:uid="{AB827FCD-D20A-4291-B615-3D24B897D9A1}" name="jul-22" dataDxfId="24" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="106" xr3:uid="{A791230D-7154-4293-95CF-E73162D6160B}" name="ago-22" dataDxfId="23" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="107" xr3:uid="{FC261AE9-D1A6-40EC-929A-321ADF6CE117}" name="sep-22" dataDxfId="22" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="108" xr3:uid="{299D0868-A62B-46B5-AFEA-4D8907222027}" name="oct-22" dataDxfId="21" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="109" xr3:uid="{66A50B97-6D9B-46E3-B628-A6EFC2894B1B}" name="nov-22" dataDxfId="20" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="110" xr3:uid="{09E4E617-6A1A-4C55-A78F-C1E7E42870C0}" name="dic-22" dataDxfId="19" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="111" xr3:uid="{1BFFE852-A7FC-41A0-9A78-BC53681ACEC5}" name="ene-23" dataDxfId="18" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="112" xr3:uid="{4D58FDA0-65FD-41AC-A978-E094D42BC0C6}" name="feb-23" dataDxfId="17" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="113" xr3:uid="{8C22BC1D-AE9E-4001-AF4B-3FCC59751E49}" name="mar-23" dataDxfId="16" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="114" xr3:uid="{98F1DEEA-0072-4BDF-9953-185D13A9E8E1}" name="abr-23" dataDxfId="15" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="115" xr3:uid="{3F699FA2-ACF0-4B16-B6AE-164A49FEF5BA}" name="may-23" dataDxfId="14" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="116" xr3:uid="{6766C827-5144-4603-807B-DB0621583269}" name="jun-23" dataDxfId="13" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="117" xr3:uid="{4F77EA51-BCA2-47D9-BFAE-D46C2EE368C7}" name="jul-23" dataDxfId="12" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="118" xr3:uid="{8B252D24-64CB-4C65-A699-53780B77CC67}" name="ago-23" dataDxfId="11" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="119" xr3:uid="{7DEE46DC-56BC-423D-B576-768DF662F91B}" name="sep-23" dataDxfId="10" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="120" xr3:uid="{901CA768-AE8A-4301-AF19-CE84CD5FF9A7}" name="oct-23" dataDxfId="9" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="121" xr3:uid="{86CE988A-8BF7-4DEC-B93A-C00354E98BFB}" name="nov-23" dataDxfId="8" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="122" xr3:uid="{1B1E2BF2-3328-42E3-80EC-8F499F7A3477}" name="dic-23" dataDxfId="7" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="123" xr3:uid="{9BB128A7-4614-4D4F-9204-38BC7F855D7A}" name="ene-24" dataDxfId="6" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="124" xr3:uid="{EB73ECD2-3BF6-41CA-894D-48AF3F27E6C9}" name="feb-24" dataDxfId="5" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="125" xr3:uid="{8BD88679-A274-4BF8-9B11-EF35902949F4}" name="mar-24" dataDxfId="4" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="126" xr3:uid="{D1260A60-1B6D-4B0A-933E-E32C5CCD593C}" name="abr-24" dataDxfId="3" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="127" xr3:uid="{25A40046-D7B1-44B2-92CA-843384C34A61}" name="may-24" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="128" xr3:uid="{7EC7A77F-8D3D-4890-8C9C-884958D266CE}" name="jun-24" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="129" xr3:uid="{4B813823-EFF4-45CB-9EF2-D3FFCFA95AB5}" name="jul-24" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2013,13 +7331,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:DY152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
     <col min="3" max="35" width="9.140625" style="1" customWidth="1"/>
     <col min="36" max="36" width="8.7109375" style="1" customWidth="1"/>
@@ -2417,7 +7735,7 @@
       </c>
     </row>
     <row r="2" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2806,8 +8124,10 @@
       </c>
     </row>
     <row r="3" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="5">
@@ -3193,7 +8513,9 @@
       </c>
     </row>
     <row r="4" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -3580,7 +8902,9 @@
       </c>
     </row>
     <row r="5" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
@@ -3967,7 +9291,9 @@
       </c>
     </row>
     <row r="6" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
@@ -4354,7 +9680,9 @@
       </c>
     </row>
     <row r="7" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4741,7 +10069,7 @@
       </c>
     </row>
     <row r="8" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -5130,7 +10458,9 @@
       </c>
     </row>
     <row r="9" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
@@ -5517,7 +10847,9 @@
       </c>
     </row>
     <row r="10" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -5904,7 +11236,9 @@
       </c>
     </row>
     <row r="11" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
@@ -6291,7 +11625,9 @@
       </c>
     </row>
     <row r="12" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
@@ -6678,7 +12014,9 @@
       </c>
     </row>
     <row r="13" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
@@ -7065,7 +12403,7 @@
       </c>
     </row>
     <row r="14" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7454,7 +12792,9 @@
       </c>
     </row>
     <row r="15" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
@@ -7841,7 +13181,9 @@
       </c>
     </row>
     <row r="16" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
@@ -8228,7 +13570,9 @@
       </c>
     </row>
     <row r="17" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
@@ -8615,7 +13959,9 @@
       </c>
     </row>
     <row r="18" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
@@ -9002,7 +14348,9 @@
       </c>
     </row>
     <row r="19" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
@@ -9389,7 +14737,7 @@
       </c>
     </row>
     <row r="20" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -9778,7 +15126,9 @@
       </c>
     </row>
     <row r="21" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
@@ -10165,7 +15515,9 @@
       </c>
     </row>
     <row r="22" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
@@ -10552,7 +15904,9 @@
       </c>
     </row>
     <row r="23" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="B23" s="7" t="s">
         <v>3</v>
       </c>
@@ -10939,7 +16293,9 @@
       </c>
     </row>
     <row r="24" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
@@ -11326,7 +16682,9 @@
       </c>
     </row>
     <row r="25" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
@@ -11713,7 +17071,7 @@
       </c>
     </row>
     <row r="26" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -12102,7 +17460,9 @@
       </c>
     </row>
     <row r="27" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="B27" s="7" t="s">
         <v>32</v>
       </c>
@@ -12489,7 +17849,9 @@
       </c>
     </row>
     <row r="28" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
@@ -12876,7 +18238,9 @@
       </c>
     </row>
     <row r="29" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
@@ -13263,7 +18627,9 @@
       </c>
     </row>
     <row r="30" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>4</v>
       </c>
@@ -13650,7 +19016,9 @@
       </c>
     </row>
     <row r="31" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
@@ -14037,7 +19405,7 @@
       </c>
     </row>
     <row r="32" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -14426,7 +19794,9 @@
       </c>
     </row>
     <row r="33" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
@@ -14813,7 +20183,9 @@
       </c>
     </row>
     <row r="34" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="B34" s="7" t="s">
         <v>2</v>
       </c>
@@ -15200,7 +20572,9 @@
       </c>
     </row>
     <row r="35" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
       </c>
@@ -15587,7 +20961,9 @@
       </c>
     </row>
     <row r="36" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="B36" s="7" t="s">
         <v>4</v>
       </c>
@@ -15974,7 +21350,9 @@
       </c>
     </row>
     <row r="37" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="B37" s="7" t="s">
         <v>5</v>
       </c>
@@ -16361,7 +21739,7 @@
       </c>
     </row>
     <row r="38" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -16750,7 +22128,9 @@
       </c>
     </row>
     <row r="39" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="B39" s="7" t="s">
         <v>32</v>
       </c>
@@ -17137,7 +22517,9 @@
       </c>
     </row>
     <row r="40" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="B40" s="7" t="s">
         <v>2</v>
       </c>
@@ -17524,7 +22906,9 @@
       </c>
     </row>
     <row r="41" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="B41" s="7" t="s">
         <v>3</v>
       </c>
@@ -17911,7 +23295,9 @@
       </c>
     </row>
     <row r="42" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="B42" s="7" t="s">
         <v>4</v>
       </c>
@@ -18298,7 +23684,9 @@
       </c>
     </row>
     <row r="43" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="B43" s="7" t="s">
         <v>5</v>
       </c>
@@ -18685,7 +24073,7 @@
       </c>
     </row>
     <row r="44" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -19074,7 +24462,9 @@
       </c>
     </row>
     <row r="45" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="B45" s="7" t="s">
         <v>32</v>
       </c>
@@ -19461,7 +24851,9 @@
       </c>
     </row>
     <row r="46" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="B46" s="7" t="s">
         <v>2</v>
       </c>
@@ -19848,7 +25240,9 @@
       </c>
     </row>
     <row r="47" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="B47" s="7" t="s">
         <v>3</v>
       </c>
@@ -20235,7 +25629,9 @@
       </c>
     </row>
     <row r="48" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="B48" s="7" t="s">
         <v>4</v>
       </c>
@@ -20622,7 +26018,9 @@
       </c>
     </row>
     <row r="49" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="B49" s="7" t="s">
         <v>5</v>
       </c>
@@ -21009,7 +26407,7 @@
       </c>
     </row>
     <row r="50" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -21398,7 +26796,9 @@
       </c>
     </row>
     <row r="51" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="A51" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="B51" s="7" t="s">
         <v>32</v>
       </c>
@@ -21785,7 +27185,9 @@
       </c>
     </row>
     <row r="52" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="B52" s="7" t="s">
         <v>2</v>
       </c>
@@ -22172,7 +27574,9 @@
       </c>
     </row>
     <row r="53" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="B53" s="7" t="s">
         <v>3</v>
       </c>
@@ -22559,7 +27963,9 @@
       </c>
     </row>
     <row r="54" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+      <c r="A54" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="B54" s="7" t="s">
         <v>4</v>
       </c>
@@ -22946,7 +28352,9 @@
       </c>
     </row>
     <row r="55" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="B55" s="7" t="s">
         <v>5</v>
       </c>
@@ -23333,7 +28741,7 @@
       </c>
     </row>
     <row r="56" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -23722,7 +29130,9 @@
       </c>
     </row>
     <row r="57" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="B57" s="7" t="s">
         <v>32</v>
       </c>
@@ -24109,7 +29519,9 @@
       </c>
     </row>
     <row r="58" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="B58" s="7" t="s">
         <v>2</v>
       </c>
@@ -24496,7 +29908,9 @@
       </c>
     </row>
     <row r="59" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
@@ -24883,7 +30297,9 @@
       </c>
     </row>
     <row r="60" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="B60" s="7" t="s">
         <v>4</v>
       </c>
@@ -25270,7 +30686,9 @@
       </c>
     </row>
     <row r="61" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="B61" s="7" t="s">
         <v>5</v>
       </c>
@@ -25657,7 +31075,7 @@
       </c>
     </row>
     <row r="62" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -26046,7 +31464,9 @@
       </c>
     </row>
     <row r="63" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+      <c r="A63" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="B63" s="7" t="s">
         <v>32</v>
       </c>
@@ -26433,7 +31853,9 @@
       </c>
     </row>
     <row r="64" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
@@ -26820,7 +32242,9 @@
       </c>
     </row>
     <row r="65" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="B65" s="7" t="s">
         <v>3</v>
       </c>
@@ -27207,7 +32631,9 @@
       </c>
     </row>
     <row r="66" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="B66" s="7" t="s">
         <v>4</v>
       </c>
@@ -27594,7 +33020,9 @@
       </c>
     </row>
     <row r="67" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="B67" s="7" t="s">
         <v>5</v>
       </c>
@@ -27981,7 +33409,7 @@
       </c>
     </row>
     <row r="68" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -28370,7 +33798,9 @@
       </c>
     </row>
     <row r="69" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+      <c r="A69" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="B69" s="7" t="s">
         <v>32</v>
       </c>
@@ -28757,7 +34187,9 @@
       </c>
     </row>
     <row r="70" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+      <c r="A70" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="B70" s="7" t="s">
         <v>2</v>
       </c>
@@ -29144,7 +34576,9 @@
       </c>
     </row>
     <row r="71" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+      <c r="A71" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="B71" s="7" t="s">
         <v>3</v>
       </c>
@@ -29531,7 +34965,9 @@
       </c>
     </row>
     <row r="72" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="B72" s="7" t="s">
         <v>4</v>
       </c>
@@ -29918,7 +35354,9 @@
       </c>
     </row>
     <row r="73" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+      <c r="A73" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="B73" s="7" t="s">
         <v>5</v>
       </c>
@@ -30305,7 +35743,7 @@
       </c>
     </row>
     <row r="74" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -30694,7 +36132,9 @@
       </c>
     </row>
     <row r="75" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+      <c r="A75" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="B75" s="7" t="s">
         <v>32</v>
       </c>
@@ -31081,7 +36521,9 @@
       </c>
     </row>
     <row r="76" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+      <c r="A76" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="B76" s="7" t="s">
         <v>2</v>
       </c>
@@ -31468,7 +36910,9 @@
       </c>
     </row>
     <row r="77" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="B77" s="7" t="s">
         <v>3</v>
       </c>
@@ -31855,7 +37299,9 @@
       </c>
     </row>
     <row r="78" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+      <c r="A78" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="B78" s="7" t="s">
         <v>4</v>
       </c>
@@ -32242,7 +37688,9 @@
       </c>
     </row>
     <row r="79" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+      <c r="A79" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="B79" s="7" t="s">
         <v>5</v>
       </c>
@@ -32629,7 +38077,7 @@
       </c>
     </row>
     <row r="80" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -33018,7 +38466,9 @@
       </c>
     </row>
     <row r="81" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="B81" s="7" t="s">
         <v>32</v>
       </c>
@@ -33405,7 +38855,9 @@
       </c>
     </row>
     <row r="82" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+      <c r="A82" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="B82" s="7" t="s">
         <v>2</v>
       </c>
@@ -33792,7 +39244,9 @@
       </c>
     </row>
     <row r="83" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+      <c r="A83" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="B83" s="7" t="s">
         <v>3</v>
       </c>
@@ -34179,7 +39633,9 @@
       </c>
     </row>
     <row r="84" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+      <c r="A84" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="B84" s="7" t="s">
         <v>4</v>
       </c>
@@ -34566,7 +40022,9 @@
       </c>
     </row>
     <row r="85" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+      <c r="A85" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="B85" s="7" t="s">
         <v>5</v>
       </c>
@@ -34953,7 +40411,7 @@
       </c>
     </row>
     <row r="86" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -35342,7 +40800,9 @@
       </c>
     </row>
     <row r="87" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+      <c r="A87" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="B87" s="7" t="s">
         <v>32</v>
       </c>
@@ -35729,7 +41189,9 @@
       </c>
     </row>
     <row r="88" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="B88" s="7" t="s">
         <v>2</v>
       </c>
@@ -36116,7 +41578,9 @@
       </c>
     </row>
     <row r="89" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+      <c r="A89" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="B89" s="7" t="s">
         <v>3</v>
       </c>
@@ -36503,7 +41967,9 @@
       </c>
     </row>
     <row r="90" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+      <c r="A90" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="B90" s="7" t="s">
         <v>4</v>
       </c>
@@ -36890,7 +42356,9 @@
       </c>
     </row>
     <row r="91" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="B91" s="7" t="s">
         <v>5</v>
       </c>
@@ -37277,7 +42745,7 @@
       </c>
     </row>
     <row r="92" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -37666,7 +43134,9 @@
       </c>
     </row>
     <row r="93" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+      <c r="A93" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="B93" s="7" t="s">
         <v>32</v>
       </c>
@@ -38053,7 +43523,9 @@
       </c>
     </row>
     <row r="94" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+      <c r="A94" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="B94" s="7" t="s">
         <v>2</v>
       </c>
@@ -38440,7 +43912,9 @@
       </c>
     </row>
     <row r="95" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
+      <c r="A95" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="B95" s="7" t="s">
         <v>3</v>
       </c>
@@ -38827,7 +44301,9 @@
       </c>
     </row>
     <row r="96" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
+      <c r="A96" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="B96" s="7" t="s">
         <v>4</v>
       </c>
@@ -39214,7 +44690,9 @@
       </c>
     </row>
     <row r="97" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="B97" s="7" t="s">
         <v>5</v>
       </c>
@@ -39601,7 +45079,7 @@
       </c>
     </row>
     <row r="98" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -39990,7 +45468,9 @@
       </c>
     </row>
     <row r="99" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+      <c r="A99" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="B99" s="7" t="s">
         <v>32</v>
       </c>
@@ -40377,7 +45857,9 @@
       </c>
     </row>
     <row r="100" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
+      <c r="A100" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="B100" s="7" t="s">
         <v>2</v>
       </c>
@@ -40764,7 +46246,9 @@
       </c>
     </row>
     <row r="101" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+      <c r="A101" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
       </c>
@@ -41151,7 +46635,9 @@
       </c>
     </row>
     <row r="102" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+      <c r="A102" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="B102" s="7" t="s">
         <v>4</v>
       </c>
@@ -41538,7 +47024,9 @@
       </c>
     </row>
     <row r="103" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
+      <c r="A103" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="B103" s="7" t="s">
         <v>5</v>
       </c>
@@ -41925,7 +47413,7 @@
       </c>
     </row>
     <row r="104" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -42314,7 +47802,9 @@
       </c>
     </row>
     <row r="105" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+      <c r="A105" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="B105" s="7" t="s">
         <v>32</v>
       </c>
@@ -42701,7 +48191,9 @@
       </c>
     </row>
     <row r="106" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
+      <c r="A106" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="B106" s="7" t="s">
         <v>2</v>
       </c>
@@ -43088,7 +48580,9 @@
       </c>
     </row>
     <row r="107" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
+      <c r="A107" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="B107" s="7" t="s">
         <v>3</v>
       </c>
@@ -43475,7 +48969,9 @@
       </c>
     </row>
     <row r="108" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+      <c r="A108" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="B108" s="7" t="s">
         <v>4</v>
       </c>
@@ -43862,7 +49358,9 @@
       </c>
     </row>
     <row r="109" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+      <c r="A109" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="B109" s="7" t="s">
         <v>5</v>
       </c>
@@ -44249,7 +49747,7 @@
       </c>
     </row>
     <row r="110" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -44638,7 +50136,9 @@
       </c>
     </row>
     <row r="111" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+      <c r="A111" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="B111" s="7" t="s">
         <v>32</v>
       </c>
@@ -45025,7 +50525,9 @@
       </c>
     </row>
     <row r="112" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+      <c r="A112" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="B112" s="7" t="s">
         <v>2</v>
       </c>
@@ -45412,7 +50914,9 @@
       </c>
     </row>
     <row r="113" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+      <c r="A113" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="B113" s="7" t="s">
         <v>3</v>
       </c>
@@ -45799,7 +51303,9 @@
       </c>
     </row>
     <row r="114" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
+      <c r="A114" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="B114" s="7" t="s">
         <v>4</v>
       </c>
@@ -46186,7 +51692,9 @@
       </c>
     </row>
     <row r="115" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
+      <c r="A115" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="B115" s="7" t="s">
         <v>5</v>
       </c>
@@ -46573,7 +52081,7 @@
       </c>
     </row>
     <row r="116" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B116" s="7" t="s">
@@ -46962,7 +52470,9 @@
       </c>
     </row>
     <row r="117" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
+      <c r="A117" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="B117" s="7" t="s">
         <v>32</v>
       </c>
@@ -47349,7 +52859,9 @@
       </c>
     </row>
     <row r="118" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
+      <c r="A118" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="B118" s="7" t="s">
         <v>2</v>
       </c>
@@ -47736,7 +53248,9 @@
       </c>
     </row>
     <row r="119" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
+      <c r="A119" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="B119" s="7" t="s">
         <v>3</v>
       </c>
@@ -48123,7 +53637,9 @@
       </c>
     </row>
     <row r="120" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
+      <c r="A120" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="B120" s="7" t="s">
         <v>4</v>
       </c>
@@ -48510,7 +54026,9 @@
       </c>
     </row>
     <row r="121" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
+      <c r="A121" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="B121" s="7" t="s">
         <v>5</v>
       </c>
@@ -48897,7 +54415,7 @@
       </c>
     </row>
     <row r="122" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B122" s="7" t="s">
@@ -49286,7 +54804,9 @@
       </c>
     </row>
     <row r="123" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
+      <c r="A123" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="B123" s="7" t="s">
         <v>32</v>
       </c>
@@ -49673,7 +55193,9 @@
       </c>
     </row>
     <row r="124" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
+      <c r="A124" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="B124" s="7" t="s">
         <v>2</v>
       </c>
@@ -50060,7 +55582,9 @@
       </c>
     </row>
     <row r="125" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
+      <c r="A125" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="B125" s="7" t="s">
         <v>3</v>
       </c>
@@ -50447,7 +55971,9 @@
       </c>
     </row>
     <row r="126" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
+      <c r="A126" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="B126" s="7" t="s">
         <v>4</v>
       </c>
@@ -50834,7 +56360,9 @@
       </c>
     </row>
     <row r="127" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="A127" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="B127" s="7" t="s">
         <v>5</v>
       </c>
@@ -51221,7 +56749,7 @@
       </c>
     </row>
     <row r="128" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -51610,7 +57138,9 @@
       </c>
     </row>
     <row r="129" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
+      <c r="A129" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="B129" s="7" t="s">
         <v>32</v>
       </c>
@@ -51997,7 +57527,9 @@
       </c>
     </row>
     <row r="130" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
+      <c r="A130" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="B130" s="7" t="s">
         <v>2</v>
       </c>
@@ -52384,7 +57916,9 @@
       </c>
     </row>
     <row r="131" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
+      <c r="A131" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="B131" s="7" t="s">
         <v>3</v>
       </c>
@@ -52771,7 +58305,9 @@
       </c>
     </row>
     <row r="132" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
+      <c r="A132" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="B132" s="7" t="s">
         <v>4</v>
       </c>
@@ -53158,7 +58694,9 @@
       </c>
     </row>
     <row r="133" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
+      <c r="A133" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="B133" s="7" t="s">
         <v>5</v>
       </c>
@@ -53545,7 +59083,7 @@
       </c>
     </row>
     <row r="134" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B134" s="7" t="s">
@@ -53934,7 +59472,9 @@
       </c>
     </row>
     <row r="135" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
+      <c r="A135" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="B135" s="7" t="s">
         <v>32</v>
       </c>
@@ -54321,7 +59861,9 @@
       </c>
     </row>
     <row r="136" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
+      <c r="A136" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="B136" s="7" t="s">
         <v>2</v>
       </c>
@@ -54708,7 +60250,9 @@
       </c>
     </row>
     <row r="137" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
+      <c r="A137" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="B137" s="7" t="s">
         <v>3</v>
       </c>
@@ -55095,7 +60639,9 @@
       </c>
     </row>
     <row r="138" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
+      <c r="A138" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="B138" s="7" t="s">
         <v>4</v>
       </c>
@@ -55482,7 +61028,9 @@
       </c>
     </row>
     <row r="139" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
+      <c r="A139" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="B139" s="7" t="s">
         <v>5</v>
       </c>
@@ -55869,7 +61417,7 @@
       </c>
     </row>
     <row r="140" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -56258,7 +61806,9 @@
       </c>
     </row>
     <row r="141" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
+      <c r="A141" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="B141" s="7" t="s">
         <v>32</v>
       </c>
@@ -56645,7 +62195,9 @@
       </c>
     </row>
     <row r="142" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
+      <c r="A142" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="B142" s="7" t="s">
         <v>2</v>
       </c>
@@ -57032,7 +62584,9 @@
       </c>
     </row>
     <row r="143" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
+      <c r="A143" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="B143" s="7" t="s">
         <v>3</v>
       </c>
@@ -57419,7 +62973,9 @@
       </c>
     </row>
     <row r="144" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
+      <c r="A144" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="B144" s="7" t="s">
         <v>4</v>
       </c>
@@ -57806,7 +63362,9 @@
       </c>
     </row>
     <row r="145" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
+      <c r="A145" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="B145" s="7" t="s">
         <v>5</v>
       </c>
@@ -58193,7 +63751,7 @@
       </c>
     </row>
     <row r="146" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B146" s="7" t="s">
@@ -58582,7 +64140,9 @@
       </c>
     </row>
     <row r="147" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
+      <c r="A147" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="B147" s="7" t="s">
         <v>32</v>
       </c>
@@ -58969,7 +64529,9 @@
       </c>
     </row>
     <row r="148" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
+      <c r="A148" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="B148" s="7" t="s">
         <v>2</v>
       </c>
@@ -59356,7 +64918,9 @@
       </c>
     </row>
     <row r="149" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
+      <c r="A149" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="B149" s="7" t="s">
         <v>3</v>
       </c>
@@ -59743,7 +65307,9 @@
       </c>
     </row>
     <row r="150" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
+      <c r="A150" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="B150" s="7" t="s">
         <v>4</v>
       </c>
@@ -60130,8 +65696,10 @@
       </c>
     </row>
     <row r="151" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="7" t="s">
+      <c r="A151" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C151" s="5">
@@ -60517,7 +66085,7 @@
       </c>
     </row>
     <row r="152" spans="1:129" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
+      <c r="A152" s="11"/>
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -60572,35 +66140,2769 @@
       <c r="BA152" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FA841-BB3B-436A-800B-0F1D044B755A}">
+  <dimension ref="A1:DY12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:129" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK1" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="BR1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BW1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="BZ1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="CC1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="CE1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="CF1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="CH1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="CI1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="CL1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="CO1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="CP1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR1" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="CS1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="CV1" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="CW1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CX1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="CY1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="CZ1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="DB1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="DC1" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="DE1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="DF1" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="DG1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="DH1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="DI1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="DJ1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="DK1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="DL1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="DN1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="DO1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="DQ1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="DS1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="DT1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="DU1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="DV1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="DY1" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:129" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5">
+        <v>112</v>
+      </c>
+      <c r="D2" s="5">
+        <v>119</v>
+      </c>
+      <c r="E2" s="5">
+        <v>143</v>
+      </c>
+      <c r="F2" s="5">
+        <v>172</v>
+      </c>
+      <c r="G2" s="5">
+        <v>168</v>
+      </c>
+      <c r="H2" s="5">
+        <v>140</v>
+      </c>
+      <c r="I2" s="5">
+        <v>126</v>
+      </c>
+      <c r="J2" s="5">
+        <v>104</v>
+      </c>
+      <c r="K2" s="5">
+        <v>136</v>
+      </c>
+      <c r="L2" s="5">
+        <v>170</v>
+      </c>
+      <c r="M2" s="5">
+        <v>171</v>
+      </c>
+      <c r="N2" s="5">
+        <v>134</v>
+      </c>
+      <c r="O2" s="5">
+        <v>192</v>
+      </c>
+      <c r="P2" s="5">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>158</v>
+      </c>
+      <c r="R2" s="5">
+        <v>161</v>
+      </c>
+      <c r="S2" s="5">
+        <v>112</v>
+      </c>
+      <c r="T2" s="5">
+        <v>95</v>
+      </c>
+      <c r="U2" s="5">
+        <v>116</v>
+      </c>
+      <c r="V2" s="5">
+        <v>91</v>
+      </c>
+      <c r="W2" s="5">
+        <v>117</v>
+      </c>
+      <c r="X2" s="5">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>106</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>96</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>89</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>71</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>49</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>56</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>53</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>65</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>44</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>57</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>60</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>74</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>75</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>67</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>69</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>64</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>63</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>50</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>44</v>
+      </c>
+      <c r="BD2" s="5">
+        <v>63</v>
+      </c>
+      <c r="BE2" s="5">
+        <v>53</v>
+      </c>
+      <c r="BF2" s="5">
+        <v>57</v>
+      </c>
+      <c r="BG2" s="5">
+        <v>53</v>
+      </c>
+      <c r="BH2" s="5">
+        <v>71</v>
+      </c>
+      <c r="BI2" s="5">
+        <v>87</v>
+      </c>
+      <c r="BJ2" s="5">
+        <v>78</v>
+      </c>
+      <c r="BK2" s="5">
+        <v>89</v>
+      </c>
+      <c r="BL2" s="5">
+        <v>75</v>
+      </c>
+      <c r="BM2" s="5">
+        <v>88</v>
+      </c>
+      <c r="BN2" s="5">
+        <v>57</v>
+      </c>
+      <c r="BO2" s="5">
+        <v>58</v>
+      </c>
+      <c r="BP2" s="5">
+        <v>74</v>
+      </c>
+      <c r="BQ2" s="5">
+        <v>52</v>
+      </c>
+      <c r="BR2" s="5">
+        <v>63</v>
+      </c>
+      <c r="BS2" s="5">
+        <v>77</v>
+      </c>
+      <c r="BT2" s="5">
+        <v>89</v>
+      </c>
+      <c r="BU2" s="5">
+        <v>63</v>
+      </c>
+      <c r="BV2" s="5">
+        <v>61</v>
+      </c>
+      <c r="BW2" s="5">
+        <v>78</v>
+      </c>
+      <c r="BX2" s="5">
+        <v>54</v>
+      </c>
+      <c r="BY2" s="5">
+        <v>19</v>
+      </c>
+      <c r="BZ2" s="5">
+        <v>8</v>
+      </c>
+      <c r="CA2" s="5">
+        <v>34</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>58</v>
+      </c>
+      <c r="CC2" s="5">
+        <v>52</v>
+      </c>
+      <c r="CD2" s="5">
+        <v>56</v>
+      </c>
+      <c r="CE2" s="5">
+        <v>46</v>
+      </c>
+      <c r="CF2" s="5">
+        <v>68</v>
+      </c>
+      <c r="CG2" s="5">
+        <v>51</v>
+      </c>
+      <c r="CH2" s="5">
+        <v>53</v>
+      </c>
+      <c r="CI2" s="5">
+        <v>54</v>
+      </c>
+      <c r="CJ2" s="5">
+        <v>49</v>
+      </c>
+      <c r="CK2" s="5">
+        <v>44</v>
+      </c>
+      <c r="CL2" s="5">
+        <v>48</v>
+      </c>
+      <c r="CM2" s="5">
+        <v>48</v>
+      </c>
+      <c r="CN2" s="5">
+        <v>43</v>
+      </c>
+      <c r="CO2" s="5">
+        <v>64</v>
+      </c>
+      <c r="CP2" s="5">
+        <v>64</v>
+      </c>
+      <c r="CQ2" s="5">
+        <v>40</v>
+      </c>
+      <c r="CR2" s="5">
+        <v>48</v>
+      </c>
+      <c r="CS2" s="5">
+        <v>56</v>
+      </c>
+      <c r="CT2" s="5">
+        <v>29</v>
+      </c>
+      <c r="CU2" s="5">
+        <v>25</v>
+      </c>
+      <c r="CV2" s="5">
+        <v>43</v>
+      </c>
+      <c r="CW2" s="5">
+        <v>31</v>
+      </c>
+      <c r="CX2" s="5">
+        <v>41</v>
+      </c>
+      <c r="CY2" s="5">
+        <v>47</v>
+      </c>
+      <c r="CZ2" s="5">
+        <v>51</v>
+      </c>
+      <c r="DA2" s="5">
+        <v>45</v>
+      </c>
+      <c r="DB2" s="5">
+        <v>55</v>
+      </c>
+      <c r="DC2" s="5">
+        <v>64</v>
+      </c>
+      <c r="DD2" s="5">
+        <v>58</v>
+      </c>
+      <c r="DE2" s="5">
+        <v>44</v>
+      </c>
+      <c r="DF2" s="5">
+        <v>53</v>
+      </c>
+      <c r="DG2" s="5">
+        <v>39</v>
+      </c>
+      <c r="DH2" s="5">
+        <v>45</v>
+      </c>
+      <c r="DI2" s="5">
+        <v>45</v>
+      </c>
+      <c r="DJ2" s="5">
+        <v>25</v>
+      </c>
+      <c r="DK2" s="5">
+        <v>30</v>
+      </c>
+      <c r="DL2" s="5">
+        <v>12</v>
+      </c>
+      <c r="DM2" s="5">
+        <v>12</v>
+      </c>
+      <c r="DN2" s="5">
+        <v>23</v>
+      </c>
+      <c r="DO2" s="5">
+        <v>21</v>
+      </c>
+      <c r="DP2" s="5">
+        <v>17</v>
+      </c>
+      <c r="DQ2" s="5">
+        <v>24</v>
+      </c>
+      <c r="DR2" s="5">
+        <v>14</v>
+      </c>
+      <c r="DS2" s="5">
+        <v>24</v>
+      </c>
+      <c r="DT2" s="5">
+        <v>10</v>
+      </c>
+      <c r="DU2" s="5">
+        <v>18</v>
+      </c>
+      <c r="DV2" s="5">
+        <v>20</v>
+      </c>
+      <c r="DW2" s="5">
+        <v>23</v>
+      </c>
+      <c r="DX2" s="5">
+        <v>19</v>
+      </c>
+      <c r="DY2" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:129" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>4</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>3</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>2</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA3" s="5">
+        <v>5</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BD3" s="5">
+        <v>4</v>
+      </c>
+      <c r="BE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BI3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="5">
+        <v>6</v>
+      </c>
+      <c r="BM3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="5">
+        <v>4</v>
+      </c>
+      <c r="BT3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BV3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BX3" s="5">
+        <v>6</v>
+      </c>
+      <c r="BY3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BZ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="5">
+        <v>3</v>
+      </c>
+      <c r="CK3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="5">
+        <v>3</v>
+      </c>
+      <c r="CR3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="5">
+        <v>2</v>
+      </c>
+      <c r="CU3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="5">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="5">
+        <v>3</v>
+      </c>
+      <c r="CX3" s="5">
+        <v>2</v>
+      </c>
+      <c r="CY3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="5">
+        <v>2</v>
+      </c>
+      <c r="DB3" s="5">
+        <v>4</v>
+      </c>
+      <c r="DC3" s="5">
+        <v>2</v>
+      </c>
+      <c r="DD3" s="5">
+        <v>2</v>
+      </c>
+      <c r="DE3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="5">
+        <v>3</v>
+      </c>
+      <c r="DG3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="5">
+        <v>3</v>
+      </c>
+      <c r="DI3" s="5">
+        <v>3</v>
+      </c>
+      <c r="DJ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="5">
+        <v>2</v>
+      </c>
+      <c r="DL3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="DN3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="5">
+        <v>1</v>
+      </c>
+      <c r="DP3" s="5">
+        <v>1</v>
+      </c>
+      <c r="DQ3" s="5">
+        <v>2</v>
+      </c>
+      <c r="DR3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DT3" s="5">
+        <v>1</v>
+      </c>
+      <c r="DU3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="5">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DX3" s="5">
+        <v>0</v>
+      </c>
+      <c r="DY3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:129" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5">
+        <v>8</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5">
+        <v>15</v>
+      </c>
+      <c r="M4" s="5">
+        <v>8</v>
+      </c>
+      <c r="N4" s="5">
+        <v>13</v>
+      </c>
+      <c r="O4" s="5">
+        <v>10</v>
+      </c>
+      <c r="P4" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>10</v>
+      </c>
+      <c r="R4" s="5">
+        <v>10</v>
+      </c>
+      <c r="S4" s="5">
+        <v>9</v>
+      </c>
+      <c r="T4" s="5">
+        <v>12</v>
+      </c>
+      <c r="U4" s="5">
+        <v>11</v>
+      </c>
+      <c r="V4" s="5">
+        <v>15</v>
+      </c>
+      <c r="W4" s="5">
+        <v>10</v>
+      </c>
+      <c r="X4" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>19</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>7</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>7</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>12</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>12</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>14</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>8</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>7</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>9</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>9</v>
+      </c>
+      <c r="AZ4" s="5">
+        <v>7</v>
+      </c>
+      <c r="BA4" s="5">
+        <v>6</v>
+      </c>
+      <c r="BB4" s="5">
+        <v>5</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>3</v>
+      </c>
+      <c r="BD4" s="5">
+        <v>5</v>
+      </c>
+      <c r="BE4" s="5">
+        <v>5</v>
+      </c>
+      <c r="BF4" s="5">
+        <v>12</v>
+      </c>
+      <c r="BG4" s="5">
+        <v>7</v>
+      </c>
+      <c r="BH4" s="5">
+        <v>8</v>
+      </c>
+      <c r="BI4" s="5">
+        <v>8</v>
+      </c>
+      <c r="BJ4" s="5">
+        <v>12</v>
+      </c>
+      <c r="BK4" s="5">
+        <v>12</v>
+      </c>
+      <c r="BL4" s="5">
+        <v>9</v>
+      </c>
+      <c r="BM4" s="5">
+        <v>9</v>
+      </c>
+      <c r="BN4" s="5">
+        <v>14</v>
+      </c>
+      <c r="BO4" s="5">
+        <v>10</v>
+      </c>
+      <c r="BP4" s="5">
+        <v>11</v>
+      </c>
+      <c r="BQ4" s="5">
+        <v>8</v>
+      </c>
+      <c r="BR4" s="5">
+        <v>10</v>
+      </c>
+      <c r="BS4" s="5">
+        <v>7</v>
+      </c>
+      <c r="BT4" s="5">
+        <v>5</v>
+      </c>
+      <c r="BU4" s="5">
+        <v>11</v>
+      </c>
+      <c r="BV4" s="5">
+        <v>9</v>
+      </c>
+      <c r="BW4" s="5">
+        <v>10</v>
+      </c>
+      <c r="BX4" s="5">
+        <v>9</v>
+      </c>
+      <c r="BY4" s="5">
+        <v>5</v>
+      </c>
+      <c r="BZ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="5">
+        <v>3</v>
+      </c>
+      <c r="CB4" s="5">
+        <v>7</v>
+      </c>
+      <c r="CC4" s="5">
+        <v>8</v>
+      </c>
+      <c r="CD4" s="5">
+        <v>5</v>
+      </c>
+      <c r="CE4" s="5">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="5">
+        <v>7</v>
+      </c>
+      <c r="CG4" s="5">
+        <v>10</v>
+      </c>
+      <c r="CH4" s="5">
+        <v>10</v>
+      </c>
+      <c r="CI4" s="5">
+        <v>7</v>
+      </c>
+      <c r="CJ4" s="5">
+        <v>5</v>
+      </c>
+      <c r="CK4" s="5">
+        <v>10</v>
+      </c>
+      <c r="CL4" s="5">
+        <v>4</v>
+      </c>
+      <c r="CM4" s="5">
+        <v>10</v>
+      </c>
+      <c r="CN4" s="5">
+        <v>2</v>
+      </c>
+      <c r="CO4" s="5">
+        <v>3</v>
+      </c>
+      <c r="CP4" s="5">
+        <v>8</v>
+      </c>
+      <c r="CQ4" s="5">
+        <v>5</v>
+      </c>
+      <c r="CR4" s="5">
+        <v>5</v>
+      </c>
+      <c r="CS4" s="5">
+        <v>8</v>
+      </c>
+      <c r="CT4" s="5">
+        <v>3</v>
+      </c>
+      <c r="CU4" s="5">
+        <v>3</v>
+      </c>
+      <c r="CV4" s="5">
+        <v>5</v>
+      </c>
+      <c r="CW4" s="5">
+        <v>2</v>
+      </c>
+      <c r="CX4" s="5">
+        <v>6</v>
+      </c>
+      <c r="CY4" s="5">
+        <v>12</v>
+      </c>
+      <c r="CZ4" s="5">
+        <v>5</v>
+      </c>
+      <c r="DA4" s="5">
+        <v>15</v>
+      </c>
+      <c r="DB4" s="5">
+        <v>12</v>
+      </c>
+      <c r="DC4" s="5">
+        <v>13</v>
+      </c>
+      <c r="DD4" s="5">
+        <v>12</v>
+      </c>
+      <c r="DE4" s="5">
+        <v>2</v>
+      </c>
+      <c r="DF4" s="5">
+        <v>6</v>
+      </c>
+      <c r="DG4" s="5">
+        <v>9</v>
+      </c>
+      <c r="DH4" s="5">
+        <v>5</v>
+      </c>
+      <c r="DI4" s="5">
+        <v>4</v>
+      </c>
+      <c r="DJ4" s="5">
+        <v>3</v>
+      </c>
+      <c r="DK4" s="5">
+        <v>2</v>
+      </c>
+      <c r="DL4" s="5">
+        <v>7</v>
+      </c>
+      <c r="DM4" s="5">
+        <v>6</v>
+      </c>
+      <c r="DN4" s="5">
+        <v>7</v>
+      </c>
+      <c r="DO4" s="5">
+        <v>3</v>
+      </c>
+      <c r="DP4" s="5">
+        <v>3</v>
+      </c>
+      <c r="DQ4" s="5">
+        <v>5</v>
+      </c>
+      <c r="DR4" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS4" s="5">
+        <v>1</v>
+      </c>
+      <c r="DT4" s="5">
+        <v>3</v>
+      </c>
+      <c r="DU4" s="5">
+        <v>3</v>
+      </c>
+      <c r="DV4" s="5">
+        <v>6</v>
+      </c>
+      <c r="DW4" s="5">
+        <v>4</v>
+      </c>
+      <c r="DX4" s="5">
+        <v>5</v>
+      </c>
+      <c r="DY4" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:129" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>9</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>8</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>11</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="5">
+        <v>4</v>
+      </c>
+      <c r="T5" s="5">
+        <v>2</v>
+      </c>
+      <c r="U5" s="5">
+        <v>5</v>
+      </c>
+      <c r="V5" s="5">
+        <v>3</v>
+      </c>
+      <c r="W5" s="5">
+        <v>4</v>
+      </c>
+      <c r="X5" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>7</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="5">
+        <v>7</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="5">
+        <v>4</v>
+      </c>
+      <c r="BD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BF5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="5">
+        <v>4</v>
+      </c>
+      <c r="BI5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BK5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BM5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BN5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BR5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BU5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BW5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BX5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CC5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="5">
+        <v>3</v>
+      </c>
+      <c r="CL5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="5">
+        <v>3</v>
+      </c>
+      <c r="CO5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="5">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="5">
+        <v>3</v>
+      </c>
+      <c r="CU5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CY5" s="5">
+        <v>3</v>
+      </c>
+      <c r="CZ5" s="5">
+        <v>3</v>
+      </c>
+      <c r="DA5" s="5">
+        <v>2</v>
+      </c>
+      <c r="DB5" s="5">
+        <v>3</v>
+      </c>
+      <c r="DC5" s="5">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="5">
+        <v>6</v>
+      </c>
+      <c r="DE5" s="5">
+        <v>11</v>
+      </c>
+      <c r="DF5" s="5">
+        <v>2</v>
+      </c>
+      <c r="DG5" s="5">
+        <v>6</v>
+      </c>
+      <c r="DH5" s="5">
+        <v>4</v>
+      </c>
+      <c r="DI5" s="5">
+        <v>6</v>
+      </c>
+      <c r="DJ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="5">
+        <v>5</v>
+      </c>
+      <c r="DL5" s="5">
+        <v>4</v>
+      </c>
+      <c r="DM5" s="5">
+        <v>5</v>
+      </c>
+      <c r="DN5" s="5">
+        <v>3</v>
+      </c>
+      <c r="DO5" s="5">
+        <v>2</v>
+      </c>
+      <c r="DP5" s="5">
+        <v>3</v>
+      </c>
+      <c r="DQ5" s="5">
+        <v>5</v>
+      </c>
+      <c r="DR5" s="5">
+        <v>3</v>
+      </c>
+      <c r="DS5" s="5">
+        <v>1</v>
+      </c>
+      <c r="DT5" s="5">
+        <v>2</v>
+      </c>
+      <c r="DU5" s="5">
+        <v>2</v>
+      </c>
+      <c r="DV5" s="5">
+        <v>1</v>
+      </c>
+      <c r="DW5" s="5">
+        <v>2</v>
+      </c>
+      <c r="DX5" s="5">
+        <v>2</v>
+      </c>
+      <c r="DY5" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:129" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24">
+        <v>85</v>
+      </c>
+      <c r="D6" s="24">
+        <v>69</v>
+      </c>
+      <c r="E6" s="24">
+        <v>81</v>
+      </c>
+      <c r="F6" s="24">
+        <v>67</v>
+      </c>
+      <c r="G6" s="24">
+        <v>92</v>
+      </c>
+      <c r="H6" s="24">
+        <v>73</v>
+      </c>
+      <c r="I6" s="24">
+        <v>85</v>
+      </c>
+      <c r="J6" s="24">
+        <v>76</v>
+      </c>
+      <c r="K6" s="24">
+        <v>70</v>
+      </c>
+      <c r="L6" s="24">
+        <v>91</v>
+      </c>
+      <c r="M6" s="24">
+        <v>83</v>
+      </c>
+      <c r="N6" s="24">
+        <v>96</v>
+      </c>
+      <c r="O6" s="24">
+        <v>102</v>
+      </c>
+      <c r="P6" s="24">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>78</v>
+      </c>
+      <c r="R6" s="24">
+        <v>100</v>
+      </c>
+      <c r="S6" s="24">
+        <v>72</v>
+      </c>
+      <c r="T6" s="24">
+        <v>104</v>
+      </c>
+      <c r="U6" s="24">
+        <v>73</v>
+      </c>
+      <c r="V6" s="24">
+        <v>73</v>
+      </c>
+      <c r="W6" s="24">
+        <v>76</v>
+      </c>
+      <c r="X6" s="24">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="24">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="24">
+        <v>76</v>
+      </c>
+      <c r="AB6" s="24">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>56</v>
+      </c>
+      <c r="AE6" s="24">
+        <v>61</v>
+      </c>
+      <c r="AF6" s="24">
+        <v>53</v>
+      </c>
+      <c r="AG6" s="24">
+        <v>62</v>
+      </c>
+      <c r="AH6" s="24">
+        <v>58</v>
+      </c>
+      <c r="AI6" s="24">
+        <v>48</v>
+      </c>
+      <c r="AJ6" s="24">
+        <v>55</v>
+      </c>
+      <c r="AK6" s="24">
+        <v>67</v>
+      </c>
+      <c r="AL6" s="24">
+        <v>61</v>
+      </c>
+      <c r="AM6" s="24">
+        <v>76</v>
+      </c>
+      <c r="AN6" s="24">
+        <v>59</v>
+      </c>
+      <c r="AO6" s="24">
+        <v>78</v>
+      </c>
+      <c r="AP6" s="24">
+        <v>58</v>
+      </c>
+      <c r="AQ6" s="24">
+        <v>70</v>
+      </c>
+      <c r="AR6" s="24">
+        <v>65</v>
+      </c>
+      <c r="AS6" s="24">
+        <v>48</v>
+      </c>
+      <c r="AT6" s="24">
+        <v>55</v>
+      </c>
+      <c r="AU6" s="24">
+        <v>51</v>
+      </c>
+      <c r="AV6" s="24">
+        <v>53</v>
+      </c>
+      <c r="AW6" s="24">
+        <v>66</v>
+      </c>
+      <c r="AX6" s="24">
+        <v>60</v>
+      </c>
+      <c r="AY6" s="24">
+        <v>60</v>
+      </c>
+      <c r="AZ6" s="24">
+        <v>59</v>
+      </c>
+      <c r="BA6" s="24">
+        <v>69</v>
+      </c>
+      <c r="BB6" s="24">
+        <v>65</v>
+      </c>
+      <c r="BC6" s="24">
+        <v>74</v>
+      </c>
+      <c r="BD6" s="24">
+        <v>86</v>
+      </c>
+      <c r="BE6" s="24">
+        <v>63</v>
+      </c>
+      <c r="BF6" s="24">
+        <v>73</v>
+      </c>
+      <c r="BG6" s="24">
+        <v>85</v>
+      </c>
+      <c r="BH6" s="24">
+        <v>82</v>
+      </c>
+      <c r="BI6" s="24">
+        <v>86</v>
+      </c>
+      <c r="BJ6" s="24">
+        <v>85</v>
+      </c>
+      <c r="BK6" s="24">
+        <v>74</v>
+      </c>
+      <c r="BL6" s="24">
+        <v>87</v>
+      </c>
+      <c r="BM6" s="24">
+        <v>91</v>
+      </c>
+      <c r="BN6" s="24">
+        <v>80</v>
+      </c>
+      <c r="BO6" s="24">
+        <v>80</v>
+      </c>
+      <c r="BP6" s="24">
+        <v>76</v>
+      </c>
+      <c r="BQ6" s="24">
+        <v>73</v>
+      </c>
+      <c r="BR6" s="24">
+        <v>62</v>
+      </c>
+      <c r="BS6" s="24">
+        <v>90</v>
+      </c>
+      <c r="BT6" s="24">
+        <v>86</v>
+      </c>
+      <c r="BU6" s="24">
+        <v>101</v>
+      </c>
+      <c r="BV6" s="24">
+        <v>98</v>
+      </c>
+      <c r="BW6" s="24">
+        <v>95</v>
+      </c>
+      <c r="BX6" s="24">
+        <v>96</v>
+      </c>
+      <c r="BY6" s="24">
+        <v>35</v>
+      </c>
+      <c r="BZ6" s="24">
+        <v>3</v>
+      </c>
+      <c r="CA6" s="24">
+        <v>18</v>
+      </c>
+      <c r="CB6" s="24">
+        <v>33</v>
+      </c>
+      <c r="CC6" s="24">
+        <v>31</v>
+      </c>
+      <c r="CD6" s="24">
+        <v>24</v>
+      </c>
+      <c r="CE6" s="24">
+        <v>40</v>
+      </c>
+      <c r="CF6" s="24">
+        <v>42</v>
+      </c>
+      <c r="CG6" s="24">
+        <v>58</v>
+      </c>
+      <c r="CH6" s="24">
+        <v>47</v>
+      </c>
+      <c r="CI6" s="24">
+        <v>41</v>
+      </c>
+      <c r="CJ6" s="24">
+        <v>42</v>
+      </c>
+      <c r="CK6" s="24">
+        <v>62</v>
+      </c>
+      <c r="CL6" s="24">
+        <v>29</v>
+      </c>
+      <c r="CM6" s="24">
+        <v>50</v>
+      </c>
+      <c r="CN6" s="24">
+        <v>53</v>
+      </c>
+      <c r="CO6" s="24">
+        <v>45</v>
+      </c>
+      <c r="CP6" s="24">
+        <v>39</v>
+      </c>
+      <c r="CQ6" s="24">
+        <v>53</v>
+      </c>
+      <c r="CR6" s="24">
+        <v>61</v>
+      </c>
+      <c r="CS6" s="24">
+        <v>73</v>
+      </c>
+      <c r="CT6" s="24">
+        <v>74</v>
+      </c>
+      <c r="CU6" s="24">
+        <v>46</v>
+      </c>
+      <c r="CV6" s="24">
+        <v>58</v>
+      </c>
+      <c r="CW6" s="24">
+        <v>61</v>
+      </c>
+      <c r="CX6" s="24">
+        <v>62</v>
+      </c>
+      <c r="CY6" s="24">
+        <v>66</v>
+      </c>
+      <c r="CZ6" s="24">
+        <v>69</v>
+      </c>
+      <c r="DA6" s="24">
+        <v>71</v>
+      </c>
+      <c r="DB6" s="24">
+        <v>73</v>
+      </c>
+      <c r="DC6" s="24">
+        <v>64</v>
+      </c>
+      <c r="DD6" s="24">
+        <v>70</v>
+      </c>
+      <c r="DE6" s="24">
+        <v>68</v>
+      </c>
+      <c r="DF6" s="24">
+        <v>62</v>
+      </c>
+      <c r="DG6" s="24">
+        <v>77</v>
+      </c>
+      <c r="DH6" s="24">
+        <v>59</v>
+      </c>
+      <c r="DI6" s="24">
+        <v>65</v>
+      </c>
+      <c r="DJ6" s="24">
+        <v>55</v>
+      </c>
+      <c r="DK6" s="24">
+        <v>47</v>
+      </c>
+      <c r="DL6" s="24">
+        <v>67</v>
+      </c>
+      <c r="DM6" s="24">
+        <v>48</v>
+      </c>
+      <c r="DN6" s="24">
+        <v>61</v>
+      </c>
+      <c r="DO6" s="24">
+        <v>64</v>
+      </c>
+      <c r="DP6" s="24">
+        <v>67</v>
+      </c>
+      <c r="DQ6" s="24">
+        <v>76</v>
+      </c>
+      <c r="DR6" s="24">
+        <v>70</v>
+      </c>
+      <c r="DS6" s="24">
+        <v>60</v>
+      </c>
+      <c r="DT6" s="24">
+        <v>70</v>
+      </c>
+      <c r="DU6" s="24">
+        <v>68</v>
+      </c>
+      <c r="DV6" s="24">
+        <v>59</v>
+      </c>
+      <c r="DW6" s="24">
+        <v>72</v>
+      </c>
+      <c r="DX6" s="24">
+        <v>73</v>
+      </c>
+      <c r="DY6" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:129" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5">
+        <v>26</v>
+      </c>
+      <c r="I7" s="5">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5">
+        <v>25</v>
+      </c>
+      <c r="L7" s="5">
+        <v>32</v>
+      </c>
+      <c r="M7" s="5">
+        <v>29</v>
+      </c>
+      <c r="N7" s="5">
+        <v>22</v>
+      </c>
+      <c r="O7" s="5">
+        <v>18</v>
+      </c>
+      <c r="P7" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>17</v>
+      </c>
+      <c r="R7" s="5">
+        <v>13</v>
+      </c>
+      <c r="S7" s="5">
+        <v>24</v>
+      </c>
+      <c r="T7" s="5">
+        <v>18</v>
+      </c>
+      <c r="U7" s="5">
+        <v>21</v>
+      </c>
+      <c r="V7" s="5">
+        <v>17</v>
+      </c>
+      <c r="W7" s="5">
+        <v>22</v>
+      </c>
+      <c r="X7" s="5">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>24</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>19</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>13</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>22</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>19</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>24</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>13</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>21</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>18</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>12</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>14</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>15</v>
+      </c>
+      <c r="AS7" s="5">
+        <v>21</v>
+      </c>
+      <c r="AT7" s="5">
+        <v>16</v>
+      </c>
+      <c r="AU7" s="5">
+        <v>21</v>
+      </c>
+      <c r="AV7" s="5">
+        <v>16</v>
+      </c>
+      <c r="AW7" s="5">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="5">
+        <v>12</v>
+      </c>
+      <c r="AY7" s="5">
+        <v>29</v>
+      </c>
+      <c r="AZ7" s="5">
+        <v>13</v>
+      </c>
+      <c r="BA7" s="5">
+        <v>16</v>
+      </c>
+      <c r="BB7" s="5">
+        <v>14</v>
+      </c>
+      <c r="BC7" s="5">
+        <v>11</v>
+      </c>
+      <c r="BD7" s="5">
+        <v>6</v>
+      </c>
+      <c r="BE7" s="5">
+        <v>11</v>
+      </c>
+      <c r="BF7" s="5">
+        <v>16</v>
+      </c>
+      <c r="BG7" s="5">
+        <v>11</v>
+      </c>
+      <c r="BH7" s="5">
+        <v>14</v>
+      </c>
+      <c r="BI7" s="5">
+        <v>17</v>
+      </c>
+      <c r="BJ7" s="5">
+        <v>14</v>
+      </c>
+      <c r="BK7" s="5">
+        <v>23</v>
+      </c>
+      <c r="BL7" s="5">
+        <v>24</v>
+      </c>
+      <c r="BM7" s="5">
+        <v>16</v>
+      </c>
+      <c r="BN7" s="5">
+        <v>21</v>
+      </c>
+      <c r="BO7" s="5">
+        <v>13</v>
+      </c>
+      <c r="BP7" s="5">
+        <v>11</v>
+      </c>
+      <c r="BQ7" s="5">
+        <v>14</v>
+      </c>
+      <c r="BR7" s="5">
+        <v>15</v>
+      </c>
+      <c r="BS7" s="5">
+        <v>21</v>
+      </c>
+      <c r="BT7" s="5">
+        <v>14</v>
+      </c>
+      <c r="BU7" s="5">
+        <v>11</v>
+      </c>
+      <c r="BV7" s="5">
+        <v>20</v>
+      </c>
+      <c r="BW7" s="5">
+        <v>22</v>
+      </c>
+      <c r="BX7" s="5">
+        <v>13</v>
+      </c>
+      <c r="BY7" s="5">
+        <v>10</v>
+      </c>
+      <c r="BZ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="5">
+        <v>5</v>
+      </c>
+      <c r="CB7" s="5">
+        <v>6</v>
+      </c>
+      <c r="CC7" s="5">
+        <v>7</v>
+      </c>
+      <c r="CD7" s="5">
+        <v>12</v>
+      </c>
+      <c r="CE7" s="5">
+        <v>13</v>
+      </c>
+      <c r="CF7" s="5">
+        <v>9</v>
+      </c>
+      <c r="CG7" s="5">
+        <v>10</v>
+      </c>
+      <c r="CH7" s="5">
+        <v>9</v>
+      </c>
+      <c r="CI7" s="5">
+        <v>12</v>
+      </c>
+      <c r="CJ7" s="5">
+        <v>4</v>
+      </c>
+      <c r="CK7" s="5">
+        <v>13</v>
+      </c>
+      <c r="CL7" s="5">
+        <v>7</v>
+      </c>
+      <c r="CM7" s="5">
+        <v>5</v>
+      </c>
+      <c r="CN7" s="5">
+        <v>10</v>
+      </c>
+      <c r="CO7" s="5">
+        <v>9</v>
+      </c>
+      <c r="CP7" s="5">
+        <v>7</v>
+      </c>
+      <c r="CQ7" s="5">
+        <v>8</v>
+      </c>
+      <c r="CR7" s="5">
+        <v>5</v>
+      </c>
+      <c r="CS7" s="5">
+        <v>7</v>
+      </c>
+      <c r="CT7" s="5">
+        <v>8</v>
+      </c>
+      <c r="CU7" s="5">
+        <v>7</v>
+      </c>
+      <c r="CV7" s="5">
+        <v>5</v>
+      </c>
+      <c r="CW7" s="5">
+        <v>9</v>
+      </c>
+      <c r="CX7" s="5">
+        <v>15</v>
+      </c>
+      <c r="CY7" s="5">
+        <v>17</v>
+      </c>
+      <c r="CZ7" s="5">
+        <v>6</v>
+      </c>
+      <c r="DA7" s="5">
+        <v>10</v>
+      </c>
+      <c r="DB7" s="5">
+        <v>17</v>
+      </c>
+      <c r="DC7" s="5">
+        <v>22</v>
+      </c>
+      <c r="DD7" s="5">
+        <v>22</v>
+      </c>
+      <c r="DE7" s="5">
+        <v>16</v>
+      </c>
+      <c r="DF7" s="5">
+        <v>9</v>
+      </c>
+      <c r="DG7" s="5">
+        <v>19</v>
+      </c>
+      <c r="DH7" s="5">
+        <v>19</v>
+      </c>
+      <c r="DI7" s="5">
+        <v>10</v>
+      </c>
+      <c r="DJ7" s="5">
+        <v>13</v>
+      </c>
+      <c r="DK7" s="5">
+        <v>8</v>
+      </c>
+      <c r="DL7" s="5">
+        <v>11</v>
+      </c>
+      <c r="DM7" s="5">
+        <v>12</v>
+      </c>
+      <c r="DN7" s="5">
+        <v>11</v>
+      </c>
+      <c r="DO7" s="5">
+        <v>12</v>
+      </c>
+      <c r="DP7" s="5">
+        <v>11</v>
+      </c>
+      <c r="DQ7" s="5">
+        <v>8</v>
+      </c>
+      <c r="DR7" s="5">
+        <v>11</v>
+      </c>
+      <c r="DS7" s="5">
+        <v>8</v>
+      </c>
+      <c r="DT7" s="5">
+        <v>9</v>
+      </c>
+      <c r="DU7" s="5">
+        <v>12</v>
+      </c>
+      <c r="DV7" s="5">
+        <v>12</v>
+      </c>
+      <c r="DW7" s="5">
+        <v>14</v>
+      </c>
+      <c r="DX7" s="5">
+        <v>9</v>
+      </c>
+      <c r="DY7" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="22"/>
+    </row>
+    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>